--- a/Archive/LBF File order structure 30092016_last.xlsx
+++ b/Archive/LBF File order structure 30092016_last.xlsx
@@ -5,18 +5,19 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vmware-host\Shared Folders\桌面\Archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\g\outsource\TmallLBF\TmalLBF\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-405" yWindow="0" windowWidth="28800" windowHeight="11985"/>
+    <workbookView xWindow="-405" yWindow="0" windowWidth="28800" windowHeight="11985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Expected file order" sheetId="9" r:id="rId1"/>
-    <sheet name="Description Expected file order" sheetId="15" r:id="rId2"/>
-    <sheet name="POST CODE " sheetId="16" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId2"/>
+    <sheet name="Description Expected file order" sheetId="15" r:id="rId3"/>
+    <sheet name="POST CODE " sheetId="16" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -106,8 +107,89 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Yingzi Qiao</author>
+    <author>ABELLI Monique</author>
+  </authors>
+  <commentList>
+    <comment ref="A6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Yingzi Qiao:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>product name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Yingzi Qiao:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>ean no; bar code</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A19" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>ABELLI Monique:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ street, flat etc ( 35 Caractères maximun)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="106">
   <si>
     <t>City</t>
   </si>
@@ -2597,8 +2679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Z8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2884,6 +2966,148 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A12" s="27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A21" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A22" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="A23" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="63" x14ac:dyDescent="0.15">
+      <c r="A24" s="25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F27"/>
   <sheetViews>
@@ -3317,7 +3541,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:B2"/>
   <sheetViews>
